--- a/data/testcase/loginPage.xlsx
+++ b/data/testcase/loginPage.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="13275" windowHeight="4350" tabRatio="652" activeTab="1"/>
+    <workbookView windowWidth="22368" windowHeight="9924" tabRatio="652" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="testCase" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44">
   <si>
     <t>用例编号</t>
   </si>
@@ -24,13 +24,22 @@
     <t>用例描述</t>
   </si>
   <si>
-    <t>执行结果</t>
-  </si>
-  <si>
     <t>loginPage_01</t>
   </si>
   <si>
-    <t>登录流程</t>
+    <t>正常登录</t>
+  </si>
+  <si>
+    <t>loginPage_02</t>
+  </si>
+  <si>
+    <t>登录用户名为空</t>
+  </si>
+  <si>
+    <t>loginPage_03</t>
+  </si>
+  <si>
+    <t>登录密码错误</t>
   </si>
   <si>
     <t>步骤编号</t>
@@ -45,15 +54,6 @@
     <t>元素名称</t>
   </si>
   <si>
-    <t>输入数据</t>
-  </si>
-  <si>
-    <t>预期结果</t>
-  </si>
-  <si>
-    <t>步骤截图</t>
-  </si>
-  <si>
     <t>s_001</t>
   </si>
   <si>
@@ -66,9 +66,6 @@
     <t>userNameInput</t>
   </si>
   <si>
-    <t>abc123</t>
-  </si>
-  <si>
     <t>s_002</t>
   </si>
   <si>
@@ -78,9 +75,6 @@
     <t>passwordInput</t>
   </si>
   <si>
-    <t>meimima</t>
-  </si>
-  <si>
     <t>s_003</t>
   </si>
   <si>
@@ -105,7 +99,13 @@
     <t>homeTitle</t>
   </si>
   <si>
-    <t>头条</t>
+    <t>验证错误提示语</t>
+  </si>
+  <si>
+    <t>getToast</t>
+  </si>
+  <si>
+    <t>toastMsg</t>
   </si>
   <si>
     <t>描述</t>
@@ -142,9 +142,6 @@
   </si>
   <si>
     <t>net.csdn.csdnplus:id/tvtitle</t>
-  </si>
-  <si>
-    <t>toastMsg</t>
   </si>
   <si>
     <t>消息提示框</t>
@@ -158,10 +155,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -172,30 +169,137 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color indexed="12"/>
-      <name val="Calibri"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -209,13 +313,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -223,105 +320,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -332,187 +330,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -533,54 +531,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -610,6 +560,30 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -623,6 +597,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -631,10 +629,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -643,133 +641,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -777,7 +775,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1126,36 +1126,49 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="3" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="13.75" customWidth="1"/>
-    <col min="2" max="2" width="20.5583333333333" customWidth="1"/>
-    <col min="3" max="3" width="14.4416666666667" customWidth="1"/>
+    <col min="2" max="2" width="20.5555555555556" customWidth="1"/>
+    <col min="3" max="3" width="14.4444444444444" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
         <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1168,58 +1181,43 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="8.88333333333333" customWidth="1"/>
-    <col min="2" max="2" width="13.75" customWidth="1"/>
-    <col min="3" max="3" width="20" customWidth="1"/>
-    <col min="4" max="4" width="9.38333333333333" customWidth="1"/>
-    <col min="5" max="5" width="14.8833333333333" customWidth="1"/>
-    <col min="6" max="8" width="8.875" customWidth="1"/>
-    <col min="9" max="9" width="9.66666666666667" customWidth="1"/>
+    <col min="1" max="2" width="14.1111111111111" customWidth="1"/>
+    <col min="3" max="3" width="23.1111111111111" customWidth="1"/>
+    <col min="4" max="4" width="10.1111111111111" customWidth="1"/>
+    <col min="5" max="5" width="15.2222222222222" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="B1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F1" t="s">
+      <c r="C1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G1" t="s">
+      <c r="D1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="I1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" ht="15" spans="1:9">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
         <v>12</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
       </c>
       <c r="C2" t="s">
         <v>13</v>
@@ -1230,71 +1228,176 @@
       <c r="E2" t="s">
         <v>15</v>
       </c>
-      <c r="F2" t="s">
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="1"/>
-    </row>
-    <row r="3" ht="15" spans="1:9">
-      <c r="A3" t="s">
+      <c r="C3" t="s">
         <v>17</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" t="s">
-        <v>18</v>
       </c>
       <c r="D3" t="s">
         <v>14</v>
       </c>
       <c r="E3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
         <v>19</v>
       </c>
-      <c r="F3" t="s">
+      <c r="C4" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="1"/>
-    </row>
-    <row r="4" ht="15" spans="1:9">
-      <c r="A4" t="s">
+      <c r="D4" t="s">
         <v>21</v>
       </c>
-      <c r="B4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="E4" t="s">
         <v>22</v>
       </c>
-      <c r="D4" t="s">
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
         <v>23</v>
       </c>
-      <c r="E4" t="s">
+      <c r="C5" t="s">
         <v>24</v>
       </c>
-      <c r="I4" s="1"/>
-    </row>
-    <row r="5" ht="15" spans="1:9">
-      <c r="A5" t="s">
+      <c r="D5" t="s">
         <v>25</v>
       </c>
-      <c r="B5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="E5" t="s">
         <v>26</v>
       </c>
-      <c r="D5" t="s">
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" t="s">
         <v>27</v>
       </c>
-      <c r="E5" t="s">
+      <c r="D8" t="s">
         <v>28</v>
       </c>
-      <c r="G5" t="s">
+      <c r="E8" t="s">
         <v>29</v>
       </c>
-      <c r="H5"/>
-      <c r="I5" s="1"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" t="s">
+        <v>29</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1308,29 +1411,29 @@
   <sheetPr/>
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="5" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="14.875" customWidth="1"/>
-    <col min="2" max="2" width="12.875" customWidth="1"/>
-    <col min="3" max="3" width="8.875" customWidth="1"/>
+    <col min="1" max="1" width="14.8796296296296" customWidth="1"/>
+    <col min="2" max="2" width="12.8796296296296" customWidth="1"/>
+    <col min="3" max="3" width="8.87962962962963" customWidth="1"/>
     <col min="4" max="4" width="43.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" t="s">
+      <c r="A1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1350,7 +1453,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s">
         <v>36</v>
@@ -1364,7 +1467,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
         <v>38</v>
@@ -1378,7 +1481,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B5" t="s">
         <v>40</v>
@@ -1392,13 +1495,13 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" t="s">
         <v>42</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>43</v>
-      </c>
-      <c r="C6" t="s">
-        <v>44</v>
       </c>
     </row>
   </sheetData>
